--- a/biology/Botanique/Orobanche_pourprée/Orobanche_pourprée.xlsx
+++ b/biology/Botanique/Orobanche_pourprée/Orobanche_pourprée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orobanche_pourpr%C3%A9e</t>
+          <t>Orobanche_pourprée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orobanche purpurea
 Orobanche purpurea, l'Orobanche pourprée, Orobanche pourpre ou Orobanche violette, parfois appelée Phélipée pourpre ou Phélipée blanche, est une plante parasite de la famille des Orobanchacées d'origine eurasiatique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orobanche_pourpr%C3%A9e</t>
+          <t>Orobanche_pourprée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle haute d'environ 15 à 40 centimètres, qui produit en début d'été une hampe florale de couleur bleu-violet.
 L'Orobanche pourprée vit en parasite aux dépens de l'Achillée millefeuille (Achillea millefolium L.).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orobanche_pourpr%C3%A9e</t>
+          <t>Orobanche_pourprée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Phelipanche purpurea (Jacq.) Soják, 1972[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phelipanche purpurea (Jacq.) Soják, 1972.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orobanche_pourpr%C3%A9e</t>
+          <t>Orobanche_pourprée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est classée « plante protégée » en Île de France et en Nord-Pas-de-Calais.
 </t>
